--- a/docs/extension-trigger-event.xlsx
+++ b/docs/extension-trigger-event.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
   <si>
     <t>Path</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Extension</t>
-  </si>
-  <si>
-    <t>trigger-event</t>
   </si>
   <si>
     <t/>
@@ -163,7 +160,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -186,7 +183,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -402,7 +399,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -553,508 +550,506 @@
       <c r="A2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>37</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AH2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AI2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AG3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="G4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AH4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>69</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="R6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
